--- a/daily/我的一天.xlsx
+++ b/daily/我的一天.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15120"/>
+    <workbookView windowHeight="15300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48">
   <si>
     <t>时间</t>
   </si>
@@ -28,9 +28,21 @@
     <t>备注</t>
   </si>
   <si>
+    <t>备忘录</t>
+  </si>
+  <si>
     <t>上午</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="华文宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>一周之后的周末，去查看这一周和上一周地</t>
+    </r>
     <r>
       <rPr>
         <sz val="14"/>
@@ -38,7 +50,25 @@
         <rFont val="Calibri"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">一周之后的周末，去查看这一周和上一周地 daily-log.docx，并总结想一想 </t>
+      <t xml:space="preserve"> daily-log.docx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="华文宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，并总结想一想</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -83,34 +113,76 @@
     </r>
   </si>
   <si>
-    <t>每一天的工作开始，可以去看看自己写的Notes</t>
+    <t>每一天的工作开始，可以去看看自己写的工作 Tasks</t>
   </si>
   <si>
     <t>起来叠被，准备洗漱</t>
   </si>
   <si>
+    <t>做好记录、笔记， daily-log 记下日志</t>
+  </si>
+  <si>
     <t>洗漱完毕，打扫卫生</t>
   </si>
   <si>
-    <t xml:space="preserve">出门上班，地铁玩手机 </t>
+    <t>收藏的那些，做好复习准备，做笔记，整理</t>
+  </si>
+  <si>
+    <t>去溜达溜达去门口 吃点东西</t>
+  </si>
+  <si>
+    <t>只收藏不行，好的文章要抽时间做读书笔记，可以记在印象笔记</t>
+  </si>
+  <si>
+    <t>回到家 吃好嘞 准备背单词</t>
+  </si>
+  <si>
+    <t>百词斩 雅思 大概15个</t>
+  </si>
+  <si>
+    <t>loading..</t>
+  </si>
+  <si>
+    <t>回忆下 然后去看视频TED演讲</t>
+  </si>
+  <si>
+    <t>昨晚准备好的，下载的视频，看过的，要看到记录下来</t>
+  </si>
+  <si>
+    <t>检查Task 下楼 带上垃圾 准备出发 骑自行车</t>
+  </si>
+  <si>
+    <t>在路上看会小说 或者 闭一会儿眼睛</t>
   </si>
   <si>
     <t>公司</t>
   </si>
   <si>
-    <t>开始上班</t>
-  </si>
-  <si>
-    <t>工作，还有什么？</t>
-  </si>
-  <si>
-    <t>多喝水，每过40分钟去上厕所</t>
-  </si>
-  <si>
-    <t>拿外卖 or 出去吃</t>
-  </si>
-  <si>
-    <t>吃外卖 - 看视频；食堂吃饭</t>
+    <t>去打水喝 茶水间 2壶</t>
+  </si>
+  <si>
+    <t>这个点差不多慢悠悠就到公司了 打水这个点人少</t>
+  </si>
+  <si>
+    <t>工作，听歌，学习计划（略）</t>
+  </si>
+  <si>
+    <t>这个后面整理（写在滴答清单里 跟阿庞公共的清单？）</t>
+  </si>
+  <si>
+    <t>多喝水，每过60分钟出去一趟</t>
+  </si>
+  <si>
+    <t>上厕所 或是去接水</t>
+  </si>
+  <si>
+    <t>去食堂 / 取餐</t>
+  </si>
+  <si>
+    <t>散步回来 TED演讲接着没看完的</t>
+  </si>
+  <si>
+    <t>也可以看会儿动漫</t>
   </si>
   <si>
     <t>下午</t>
@@ -122,19 +194,37 @@
     <t>去外面溜达溜达</t>
   </si>
   <si>
+    <t>差不多睡醒了</t>
+  </si>
+  <si>
+    <t>继续。going on</t>
+  </si>
+  <si>
+    <t>跟阿福吹去溜达溜达</t>
+  </si>
+  <si>
     <t>下班 or 加班</t>
   </si>
   <si>
     <t>晚上</t>
   </si>
   <si>
-    <t>玩游戏</t>
-  </si>
-  <si>
-    <t>看直播 or 看视频</t>
-  </si>
-  <si>
-    <t>看书</t>
+    <t>待整理 loading</t>
+  </si>
+  <si>
+    <t>吃饭/跑步</t>
+  </si>
+  <si>
+    <t>跑完再吃 实在饿待话 吃一点</t>
+  </si>
+  <si>
+    <t>听歌走起/跟阿庞聊天</t>
+  </si>
+  <si>
+    <t>看书？忘了很久了</t>
+  </si>
+  <si>
+    <t>羞愧 办的借书卡网了放哪了 找找看</t>
   </si>
   <si>
     <t>睡觉（＾◇＾）</t>
@@ -146,17 +236,174 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="h:mm\ AM/PM"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="华文宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -164,151 +411,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -317,12 +419,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -374,37 +470,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -416,31 +632,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -452,7 +644,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -462,104 +654,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -674,6 +770,39 @@
       <top/>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -702,11 +831,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -726,32 +861,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -769,9 +878,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -780,152 +891,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1000,58 +1111,67 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
-    <cellStyle name="Title" xfId="39" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
-    <cellStyle name="Comma" xfId="44" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
-    <cellStyle name="Percent" xfId="47" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1325,25 +1445,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="B2:G26"/>
+  <dimension ref="B2:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" customHeight="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" customHeight="1" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="4.03125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.28125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="41.7890625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="1"/>
-    <col min="6" max="6" width="9" style="2"/>
-    <col min="7" max="7" width="101.953125" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="4.02884615384615" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.2788461538462" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.2788461538462" style="2" customWidth="1"/>
+    <col min="4" max="4" width="45.3461538461538" style="1" customWidth="1"/>
+    <col min="5" max="5" width="68.9038461538462" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.6634615384615" style="2" customWidth="1"/>
+    <col min="8" max="8" width="101.951923076923" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" s="1" customFormat="1" ht="42" customHeight="1" spans="2:6">
+    <row r="2" s="1" customFormat="1" ht="42" customHeight="1" spans="2:7">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1353,246 +1474,338 @@
       <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="E2" s="25" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="29" customHeight="1" spans="2:7">
+      <c r="G2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="29" customHeight="1" spans="2:8">
       <c r="B3" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="6"/>
-      <c r="F3" s="2">
+      <c r="E3" s="8"/>
+      <c r="G3" s="2">
         <v>1</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" customHeight="1" spans="2:7">
+      <c r="H3" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" customHeight="1" spans="2:8">
       <c r="B4" s="7">
-        <v>0.291666666666667</v>
+        <v>0.25</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="2">
+        <v>8</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="G4" s="2">
         <v>2</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" customHeight="1" spans="2:6">
+      <c r="H4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" customHeight="1" spans="2:8">
       <c r="B5" s="7">
-        <v>0.298611111111111</v>
+        <v>0.256944444444444</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" s="1" customFormat="1" customHeight="1" spans="2:6">
+        <v>10</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="G5" s="2">
+        <v>3</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" customHeight="1" spans="2:8">
       <c r="B6" s="7">
-        <v>0.319444444444444</v>
+        <v>0.277777777777778</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" s="1" customFormat="1" customHeight="1" spans="2:6">
+        <v>12</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="G6" s="2">
+        <v>4</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" customHeight="1" spans="2:8">
       <c r="B7" s="7">
-        <v>0.333333333333333</v>
+        <v>0.284722222222222</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" s="1" customFormat="1" customHeight="1" spans="2:6">
-      <c r="B8" s="9"/>
+        <v>14</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="G7" s="2">
+        <v>5</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" customHeight="1" spans="2:7">
+      <c r="B8" s="7">
+        <v>0.298611111111111</v>
+      </c>
       <c r="C8" s="2"/>
-      <c r="D8" s="8"/>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" s="1" customFormat="1" customHeight="1" spans="2:6">
+      <c r="D8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" customHeight="1" spans="2:7">
       <c r="B9" s="7">
-        <v>0.375</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>0.309027777777778</v>
+      </c>
+      <c r="C9" s="2"/>
       <c r="D9" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" s="1" customFormat="1" customHeight="1" spans="2:6">
-      <c r="B10" s="9"/>
+        <v>19</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" s="1" customFormat="1" customHeight="1" spans="2:7">
+      <c r="B10" s="7">
+        <v>0.333333333333333</v>
+      </c>
       <c r="C10" s="2"/>
       <c r="D10" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" s="1" customFormat="1" customHeight="1" spans="2:6">
+        <v>21</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" s="1" customFormat="1" customHeight="1" spans="2:7">
       <c r="B11" s="9"/>
       <c r="C11" s="2"/>
-      <c r="D11" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" s="1" customFormat="1" customHeight="1" spans="2:6">
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" s="1" customFormat="1" customHeight="1" spans="2:7">
       <c r="B12" s="7">
-        <v>0.496527777777778</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>0.361111111111111</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="D12" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" s="1" customFormat="1" customHeight="1" spans="2:6">
+        <v>24</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" s="1" customFormat="1" customHeight="1" spans="2:7">
       <c r="B13" s="9"/>
       <c r="C13" s="2"/>
       <c r="D13" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" s="1" customFormat="1" ht="29" customHeight="1" spans="2:6">
-      <c r="B14" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="12"/>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" s="1" customFormat="1" customHeight="1" spans="2:6">
+        <v>26</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" s="1" customFormat="1" customHeight="1" spans="2:7">
+      <c r="B14" s="9"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" s="1" customFormat="1" customHeight="1" spans="2:7">
       <c r="B15" s="7">
-        <v>0.541666666666667</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>0.493055555555556</v>
+      </c>
+      <c r="C15" s="2"/>
       <c r="D15" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" s="1" customFormat="1" customHeight="1" spans="2:6">
-      <c r="B16" s="7">
-        <v>0.552083333333333</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="E15" s="8"/>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" s="1" customFormat="1" customHeight="1" spans="2:7">
+      <c r="B16" s="9"/>
       <c r="C16" s="2"/>
       <c r="D16" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" s="1" customFormat="1" customHeight="1" spans="2:6">
-      <c r="B17" s="7">
-        <v>0.5625</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" s="1" customFormat="1" customHeight="1" spans="2:6">
-      <c r="B18" s="9"/>
-      <c r="C18" s="2"/>
+        <v>31</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" s="1" customFormat="1" ht="29" customHeight="1" spans="2:7">
+      <c r="B17" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="11"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="8"/>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" s="1" customFormat="1" customHeight="1" spans="2:7">
+      <c r="B18" s="7">
+        <v>0.534722222222222</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="D18" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" s="1" customFormat="1" customHeight="1" spans="2:6">
+        <v>34</v>
+      </c>
+      <c r="E18" s="8"/>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" s="1" customFormat="1" customHeight="1" spans="2:7">
       <c r="B19" s="7">
-        <v>0.729166666666667</v>
+        <v>0.552083333333333</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" s="1" customFormat="1" customHeight="1" spans="2:6">
+        <v>35</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" s="1" customFormat="1" customHeight="1" spans="2:7">
       <c r="B20" s="7">
-        <v>0.75</v>
+        <v>0.5625</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" s="1" customFormat="1" customHeight="1" spans="2:6">
-      <c r="B21" s="7"/>
+        <v>26</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" s="1" customFormat="1" customHeight="1" spans="2:7">
+      <c r="B21" s="7">
+        <v>0.1875</v>
+      </c>
       <c r="C21" s="2"/>
-      <c r="D21" s="8"/>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" s="1" customFormat="1" ht="28" customHeight="1" spans="2:6">
-      <c r="B22" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="15"/>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" s="1" customFormat="1" customHeight="1" spans="2:6">
-      <c r="B23" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="17"/>
-      <c r="D23" s="18"/>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" s="1" customFormat="1" customHeight="1" spans="2:6">
-      <c r="B24" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" s="17"/>
-      <c r="D24" s="18"/>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" s="1" customFormat="1" customHeight="1" spans="2:6">
-      <c r="B25" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" s="20"/>
-      <c r="D25" s="21"/>
-      <c r="F25" s="2"/>
-    </row>
-    <row r="26" customHeight="1" spans="2:4">
-      <c r="B26" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" s="23"/>
-      <c r="D26" s="24"/>
+      <c r="D21" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="8"/>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" s="1" customFormat="1" customHeight="1" spans="2:7">
+      <c r="B22" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="8"/>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" s="1" customFormat="1" customHeight="1" spans="2:7">
+      <c r="B23" s="7"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" s="1" customFormat="1" ht="28" customHeight="1" spans="2:7">
+      <c r="B24" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="14"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" s="1" customFormat="1" customHeight="1" spans="2:7">
+      <c r="B25" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="17"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" s="1" customFormat="1" customHeight="1" spans="2:7">
+      <c r="B26" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="17"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="8"/>
+      <c r="G26" s="2"/>
+    </row>
+    <row r="27" s="1" customFormat="1" customHeight="1" spans="2:7">
+      <c r="B27" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" s="20"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" customHeight="1" spans="2:5">
+      <c r="B28" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="23"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="C24:D24"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
     <mergeCell ref="C4:C7"/>
-    <mergeCell ref="C9:C13"/>
-    <mergeCell ref="C15:C19"/>
+    <mergeCell ref="C12:C16"/>
+    <mergeCell ref="C18:C21"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/daily/我的一天.xlsx
+++ b/daily/我的一天.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49">
   <si>
     <t>时间</t>
   </si>
@@ -131,7 +131,26 @@
     <t>去溜达溜达去门口 吃点东西</t>
   </si>
   <si>
-    <t>只收藏不行，好的文章要抽时间做读书笔记，可以记在印象笔记</t>
+    <r>
+      <t>只收藏不行，好的文章要抽时间做</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <charset val="134"/>
+      </rPr>
+      <t>读书笔记</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，可以记在印象笔记</t>
+    </r>
   </si>
   <si>
     <t>回到家 吃好嘞 准备背单词</t>
@@ -140,28 +159,31 @@
     <t>百词斩 雅思 大概15个</t>
   </si>
   <si>
+    <t>浏览器收藏夹 - 今日 - 收藏（5:00多 去过一遍） &amp; 明日早上看一遍</t>
+  </si>
+  <si>
+    <t>回忆下 然后去看视频TED演讲</t>
+  </si>
+  <si>
+    <t>昨晚准备好的，下载的视频，看过的，要看到记录下来</t>
+  </si>
+  <si>
+    <t>检查Task 下楼 带上垃圾 准备出发 骑自行车</t>
+  </si>
+  <si>
+    <t>在路上看会小说 或者 闭一会儿眼睛</t>
+  </si>
+  <si>
+    <t>公司</t>
+  </si>
+  <si>
+    <t>去打水喝 茶水间 2壶</t>
+  </si>
+  <si>
+    <t>这个点差不多慢悠悠就到公司了 打水这个点人少</t>
+  </si>
+  <si>
     <t>loading..</t>
-  </si>
-  <si>
-    <t>回忆下 然后去看视频TED演讲</t>
-  </si>
-  <si>
-    <t>昨晚准备好的，下载的视频，看过的，要看到记录下来</t>
-  </si>
-  <si>
-    <t>检查Task 下楼 带上垃圾 准备出发 骑自行车</t>
-  </si>
-  <si>
-    <t>在路上看会小说 或者 闭一会儿眼睛</t>
-  </si>
-  <si>
-    <t>公司</t>
-  </si>
-  <si>
-    <t>去打水喝 茶水间 2壶</t>
-  </si>
-  <si>
-    <t>这个点差不多慢悠悠就到公司了 打水这个点人少</t>
   </si>
   <si>
     <t>工作，听歌，学习计划（略）</t>
@@ -236,12 +258,12 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="h:mm\ AM/PM"/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -263,20 +285,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -286,7 +294,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -294,6 +316,90 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -307,13 +413,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -323,87 +422,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -424,6 +446,13 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="39">
     <fill>
@@ -470,187 +499,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -785,6 +814,50 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -798,11 +871,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -821,218 +915,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1447,8 +1476,8 @@
   <sheetPr/>
   <dimension ref="B2:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" customHeight="1" outlineLevelCol="7"/>
@@ -1561,7 +1590,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" customHeight="1" spans="2:7">
+    <row r="8" s="1" customFormat="1" customHeight="1" spans="2:8">
       <c r="B8" s="7">
         <v>0.298611111111111</v>
       </c>
@@ -1572,7 +1601,10 @@
       <c r="E8" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="2">
+        <v>6</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1587,7 +1619,9 @@
       <c r="E9" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="2"/>
+      <c r="G9" s="2">
+        <v>7</v>
+      </c>
     </row>
     <row r="10" s="1" customFormat="1" customHeight="1" spans="2:7">
       <c r="B10" s="7">
@@ -1600,14 +1634,18 @@
       <c r="E10" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="2"/>
+      <c r="G10" s="2">
+        <v>8</v>
+      </c>
     </row>
     <row r="11" s="1" customFormat="1" customHeight="1" spans="2:7">
       <c r="B11" s="9"/>
       <c r="C11" s="2"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
-      <c r="G11" s="2"/>
+      <c r="G11" s="2">
+        <v>9</v>
+      </c>
     </row>
     <row r="12" s="1" customFormat="1" customHeight="1" spans="2:7">
       <c r="B12" s="7">
@@ -1622,16 +1660,18 @@
       <c r="E12" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G12" s="2"/>
+      <c r="G12" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="13" s="1" customFormat="1" customHeight="1" spans="2:7">
       <c r="B13" s="9"/>
       <c r="C13" s="2"/>
       <c r="D13" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G13" s="2"/>
     </row>
@@ -1639,10 +1679,10 @@
       <c r="B14" s="9"/>
       <c r="C14" s="2"/>
       <c r="D14" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G14" s="2"/>
     </row>
@@ -1652,7 +1692,7 @@
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E15" s="8"/>
       <c r="G15" s="2"/>
@@ -1661,16 +1701,16 @@
       <c r="B16" s="9"/>
       <c r="C16" s="2"/>
       <c r="D16" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G16" s="2"/>
     </row>
     <row r="17" s="1" customFormat="1" ht="29" customHeight="1" spans="2:7">
       <c r="B17" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="12"/>
@@ -1685,7 +1725,7 @@
         <v>23</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E18" s="8"/>
       <c r="G18" s="2"/>
@@ -1696,10 +1736,10 @@
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G19" s="2"/>
     </row>
@@ -1709,10 +1749,10 @@
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G20" s="2"/>
     </row>
@@ -1722,7 +1762,7 @@
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E21" s="8"/>
       <c r="G21" s="2"/>
@@ -1733,7 +1773,7 @@
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E22" s="8"/>
       <c r="G22" s="2"/>
@@ -1747,29 +1787,29 @@
     </row>
     <row r="24" s="1" customFormat="1" ht="28" customHeight="1" spans="2:7">
       <c r="B24" s="13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C24" s="14"/>
       <c r="D24" s="15"/>
       <c r="E24" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G24" s="2"/>
     </row>
     <row r="25" s="1" customFormat="1" customHeight="1" spans="2:7">
       <c r="B25" s="16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C25" s="17"/>
       <c r="D25" s="18"/>
       <c r="E25" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G25" s="2"/>
     </row>
     <row r="26" s="1" customFormat="1" customHeight="1" spans="2:7">
       <c r="B26" s="16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C26" s="17"/>
       <c r="D26" s="18"/>
@@ -1778,18 +1818,18 @@
     </row>
     <row r="27" s="1" customFormat="1" customHeight="1" spans="2:7">
       <c r="B27" s="19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C27" s="20"/>
       <c r="D27" s="21"/>
       <c r="E27" s="8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G27" s="2"/>
     </row>
     <row r="28" customHeight="1" spans="2:5">
       <c r="B28" s="22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C28" s="23"/>
       <c r="D28" s="24"/>

--- a/daily/我的一天.xlsx
+++ b/daily/我的一天.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15300"/>
+    <workbookView windowWidth="32700" windowHeight="15200"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="2023" sheetId="2" r:id="rId1"/>
+    <sheet name="2020" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="69">
   <si>
     <t>时间</t>
   </si>
@@ -28,10 +29,111 @@
     <t>备注</t>
   </si>
   <si>
+    <t>上午</t>
+  </si>
+  <si>
+    <t>家</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">闹钟响，拉窗帘，再眯会儿；第二次响时起床 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>⏰</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+  </si>
+  <si>
+    <t>洗漱</t>
+  </si>
+  <si>
+    <t>润肤霜护肤，吃点东西</t>
+  </si>
+  <si>
+    <t>看收藏，再睡会儿觉</t>
+  </si>
+  <si>
+    <t>起来整理下，骑车去上班</t>
+  </si>
+  <si>
+    <t>公司</t>
+  </si>
+  <si>
+    <t>看书签，回顾</t>
+  </si>
+  <si>
+    <t>准备今天的工作内容</t>
+  </si>
+  <si>
+    <t>工作</t>
+  </si>
+  <si>
+    <t>吃饭</t>
+  </si>
+  <si>
+    <t>下午</t>
+  </si>
+  <si>
+    <t>回顾收藏的，刷知乎</t>
+  </si>
+  <si>
+    <t>午休</t>
+  </si>
+  <si>
+    <t>接水，开灯</t>
+  </si>
+  <si>
+    <t>工作，听歌</t>
+  </si>
+  <si>
+    <t>不加班时，就看些技术博客充电，做自己的事</t>
+  </si>
+  <si>
+    <t>回家</t>
+  </si>
+  <si>
+    <t>晚上</t>
+  </si>
+  <si>
+    <t>～</t>
+  </si>
+  <si>
+    <t>做饭，吃饭</t>
+  </si>
+  <si>
+    <t>散步</t>
+  </si>
+  <si>
+    <t>娱乐，护肤，看收藏</t>
+  </si>
+  <si>
+    <t>洗漱，睡觉，回想</t>
+  </si>
+  <si>
     <t>备忘录</t>
-  </si>
-  <si>
-    <t>上午</t>
   </si>
   <si>
     <r>
@@ -81,9 +183,6 @@
     </r>
   </si>
   <si>
-    <t>家</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="14"/>
@@ -132,12 +231,20 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>只收藏不行，好的文章要抽时间做</t>
     </r>
     <r>
       <rPr>
         <sz val="14"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>读书笔记</t>
@@ -174,9 +281,6 @@
     <t>在路上看会小说 或者 闭一会儿眼睛</t>
   </si>
   <si>
-    <t>公司</t>
-  </si>
-  <si>
     <t>去打水喝 茶水间 2壶</t>
   </si>
   <si>
@@ -207,9 +311,6 @@
     <t>也可以看会儿动漫</t>
   </si>
   <si>
-    <t>下午</t>
-  </si>
-  <si>
     <t>睡觉</t>
   </si>
   <si>
@@ -226,9 +327,6 @@
   </si>
   <si>
     <t>下班 or 加班</t>
-  </si>
-  <si>
-    <t>晚上</t>
   </si>
   <si>
     <t>待整理 loading</t>
@@ -258,200 +356,217 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="h:mm\ AM/PM"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="29">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="华文宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体-简"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="华文宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Times New Roman"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="39">
@@ -499,24 +614,168 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -529,19 +788,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -551,140 +798,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="20">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -818,11 +933,70 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -842,22 +1016,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -886,32 +1055,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -920,152 +1079,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1150,57 +1309,87 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1472,24 +1661,332 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:H28"/>
+  <dimension ref="B1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" customHeight="1" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="4.02884615384615" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.2788461538462" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.2788461538462" style="2" customWidth="1"/>
-    <col min="4" max="4" width="45.3461538461538" style="1" customWidth="1"/>
-    <col min="5" max="5" width="68.9038461538462" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.03125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.28125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="48.171875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="68.90625" style="1" customWidth="1"/>
     <col min="6" max="6" width="21.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.6634615384615" style="2" customWidth="1"/>
-    <col min="8" max="8" width="101.951923076923" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="101.953125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="2:7">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="42" customHeight="1" spans="2:7">
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="29" customHeight="1" spans="2:8">
+      <c r="B3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="8"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="26"/>
+    </row>
+    <row r="4" s="1" customFormat="1" customHeight="1" spans="2:7">
+      <c r="B4" s="7">
+        <v>0.266666666666667</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" s="1" customFormat="1" customHeight="1" spans="2:7">
+      <c r="B5" s="7">
+        <v>0.277083333333333</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" s="1" customFormat="1" customHeight="1" spans="2:7">
+      <c r="B6" s="7">
+        <v>0.291666666666667</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" s="1" customFormat="1" customHeight="1" spans="2:7">
+      <c r="B7" s="7">
+        <v>0.298611111111111</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" s="1" customFormat="1" customHeight="1" spans="2:7">
+      <c r="B8" s="7">
+        <v>0.322916666666667</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" s="1" customFormat="1" customHeight="1" spans="2:7">
+      <c r="B9" s="9"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" s="1" customFormat="1" customHeight="1" spans="2:7">
+      <c r="B10" s="7">
+        <v>0.354166666666667</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" s="1" customFormat="1" customHeight="1" spans="2:7">
+      <c r="B11" s="9"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" s="1" customFormat="1" customHeight="1" spans="2:7">
+      <c r="B12" s="9"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" s="1" customFormat="1" customHeight="1" spans="2:7">
+      <c r="B13" s="7">
+        <v>0.479166666666667</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="29" customHeight="1" spans="2:7">
+      <c r="B14" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="11"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="8"/>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" s="1" customFormat="1" customHeight="1" spans="2:7">
+      <c r="B15" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="8"/>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" s="1" customFormat="1" customHeight="1" spans="2:7">
+      <c r="B16" s="7">
+        <v>0.516666666666667</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="8"/>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" s="1" customFormat="1" customHeight="1" spans="2:7">
+      <c r="B17" s="7">
+        <v>0.539583333333333</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="8"/>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" s="1" customFormat="1" customHeight="1" spans="2:7">
+      <c r="B18" s="7">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="8"/>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" s="1" customFormat="1" customHeight="1" spans="2:7">
+      <c r="B19" s="7">
+        <v>0.729166666666667</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="8"/>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" s="1" customFormat="1" customHeight="1" spans="2:7">
+      <c r="B20" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="8"/>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" s="1" customFormat="1" ht="28" customHeight="1" spans="2:7">
+      <c r="B21" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="30"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="8"/>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" s="1" customFormat="1" customHeight="1" spans="2:7">
+      <c r="B22" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="8"/>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" s="1" customFormat="1" customHeight="1" spans="2:7">
+      <c r="B23" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="35"/>
+      <c r="D23" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="8"/>
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" s="1" customFormat="1" customHeight="1" spans="2:7">
+      <c r="B24" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="35"/>
+      <c r="D24" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="8"/>
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" s="1" customFormat="1" customHeight="1" spans="2:7">
+      <c r="B25" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="37"/>
+      <c r="D25" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" s="27"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C4:C8"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="C15:C20"/>
+    <mergeCell ref="C22:C25"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B2:H28"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G17" sqref="$A1:$XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" customHeight="1" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="4.03125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.28125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="45.34375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="68.90625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="101.953125" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1507,12 +2004,12 @@
         <v>3</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="29" customHeight="1" spans="2:8">
       <c r="B3" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="6"/>
@@ -1521,7 +2018,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="26" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" customHeight="1" spans="2:8">
@@ -1529,17 +2026,17 @@
         <v>0.25</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="E4" s="8"/>
       <c r="G4" s="2">
         <v>2</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" customHeight="1" spans="2:8">
@@ -1548,14 +2045,14 @@
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="8" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E5" s="8"/>
       <c r="G5" s="2">
         <v>3</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" customHeight="1" spans="2:8">
@@ -1564,14 +2061,14 @@
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="8" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="E6" s="8"/>
       <c r="G6" s="2">
         <v>4</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" customHeight="1" spans="2:8">
@@ -1580,14 +2077,14 @@
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="8" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="E7" s="8"/>
       <c r="G7" s="2">
         <v>5</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" customHeight="1" spans="2:8">
@@ -1596,16 +2093,16 @@
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="8" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="G8" s="2">
         <v>6</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" customHeight="1" spans="2:7">
@@ -1614,10 +2111,10 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="8" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="G9" s="2">
         <v>7</v>
@@ -1629,10 +2126,10 @@
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="8" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="G10" s="2">
         <v>8</v>
@@ -1652,26 +2149,26 @@
         <v>0.361111111111111</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" customHeight="1" spans="2:7">
       <c r="B13" s="9"/>
       <c r="C13" s="2"/>
       <c r="D13" s="8" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="G13" s="2"/>
     </row>
@@ -1679,10 +2176,10 @@
       <c r="B14" s="9"/>
       <c r="C14" s="2"/>
       <c r="D14" s="8" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="G14" s="2"/>
     </row>
@@ -1692,7 +2189,7 @@
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="8" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="E15" s="8"/>
       <c r="G15" s="2"/>
@@ -1701,16 +2198,16 @@
       <c r="B16" s="9"/>
       <c r="C16" s="2"/>
       <c r="D16" s="8" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="G16" s="2"/>
     </row>
     <row r="17" s="1" customFormat="1" ht="29" customHeight="1" spans="2:7">
       <c r="B17" s="10" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="12"/>
@@ -1722,10 +2219,10 @@
         <v>0.534722222222222</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="E18" s="8"/>
       <c r="G18" s="2"/>
@@ -1736,10 +2233,10 @@
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="8" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="G19" s="2"/>
     </row>
@@ -1749,10 +2246,10 @@
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="8" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="G20" s="2"/>
     </row>
@@ -1762,7 +2259,7 @@
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="8" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="E21" s="8"/>
       <c r="G21" s="2"/>
@@ -1773,7 +2270,7 @@
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="8" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="E22" s="8"/>
       <c r="G22" s="2"/>
@@ -1787,29 +2284,29 @@
     </row>
     <row r="24" s="1" customFormat="1" ht="28" customHeight="1" spans="2:7">
       <c r="B24" s="13" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="C24" s="14"/>
       <c r="D24" s="15"/>
       <c r="E24" s="8" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="G24" s="2"/>
     </row>
     <row r="25" s="1" customFormat="1" customHeight="1" spans="2:7">
       <c r="B25" s="16" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="C25" s="17"/>
       <c r="D25" s="18"/>
       <c r="E25" s="8" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="G25" s="2"/>
     </row>
     <row r="26" s="1" customFormat="1" customHeight="1" spans="2:7">
       <c r="B26" s="16" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="C26" s="17"/>
       <c r="D26" s="18"/>
@@ -1818,18 +2315,18 @@
     </row>
     <row r="27" s="1" customFormat="1" customHeight="1" spans="2:7">
       <c r="B27" s="19" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="C27" s="20"/>
       <c r="D27" s="21"/>
       <c r="E27" s="8" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="G27" s="2"/>
     </row>
     <row r="28" customHeight="1" spans="2:5">
       <c r="B28" s="22" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="C28" s="23"/>
       <c r="D28" s="24"/>
